--- a/project-planning/timelogs/Emanuel_Time_Log.xlsx
+++ b/project-planning/timelogs/Emanuel_Time_Log.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Review of artifacts; discuss, motivate, remind, distribute workload in team;</t>
   </si>
   <si>
-    <t xml:space="preserve">remind, discuss, workload in team; review usecase diagrams &amp; usecases; append usecases;</t>
+    <t xml:space="preserve">remind, discuss, workload in team; review usecase diagrams &amp; usecases; append usecases; prepare, lead, finalize meeting/meeting notes (Saturday); balance tasks; 1to1 - discuss issues</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -892,7 +892,7 @@
         <v>45952</v>
       </c>
       <c r="E9" s="14">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>13</v>
